--- a/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="184">
   <si>
     <t>Package</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>StatValue</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>Struct</t>
   </si>
   <si>
@@ -113,12 +107,12 @@
     <t>StatNode</t>
   </si>
   <si>
+    <t>玩家统计数据库表</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
-    <t>玩家统计数据库表</t>
-  </si>
-  <si>
     <t>uin, id</t>
   </si>
   <si>
@@ -134,36 +128,36 @@
     <t>AddStatReq</t>
   </si>
   <si>
+    <t>增加统计信息请求</t>
+  </si>
+  <si>
+    <t>CS;SS</t>
+  </si>
+  <si>
+    <t>AddStatRsp</t>
+  </si>
+  <si>
+    <t>增加统计信息响应</t>
+  </si>
+  <si>
+    <t>GetStatDataReq</t>
+  </si>
+  <si>
+    <t>获得统计信息请求</t>
+  </si>
+  <si>
+    <t>GetStatDataRsp</t>
+  </si>
+  <si>
+    <t>获得统计信息响应</t>
+  </si>
+  <si>
+    <t>NiStatisticService</t>
+  </si>
+  <si>
     <t>Service</t>
   </si>
   <si>
-    <t>增加统计信息请求</t>
-  </si>
-  <si>
-    <t>CS;SS</t>
-  </si>
-  <si>
-    <t>AddStatRsp</t>
-  </si>
-  <si>
-    <t>增加统计信息响应</t>
-  </si>
-  <si>
-    <t>GetStatDataReq</t>
-  </si>
-  <si>
-    <t>获得统计信息请求</t>
-  </si>
-  <si>
-    <t>GetStatDataRsp</t>
-  </si>
-  <si>
-    <t>获得统计信息响应</t>
-  </si>
-  <si>
-    <t>NiStatisticService</t>
-  </si>
-  <si>
     <t>玩家统计服务</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>StatData</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>玩家统计配置结构</t>
   </si>
   <si>
@@ -356,6 +347,225 @@
     <t>是否为全局</t>
   </si>
   <si>
+    <t>统计id</t>
+  </si>
+  <si>
+    <t>objcategory</t>
+  </si>
+  <si>
+    <t>objtype</t>
+  </si>
+  <si>
+    <t>objsubtype</t>
+  </si>
+  <si>
+    <t>objid</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>STAT_SYS_TYPE_ALL</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>STAT_SYS_TYPE_ACHIEVEMENT</t>
+  </si>
+  <si>
+    <t>成就对应的统计</t>
+  </si>
+  <si>
+    <t>STAT_SYS_TYPE_QUEST</t>
+  </si>
+  <si>
+    <t>任务对应的统计</t>
+  </si>
+  <si>
+    <t>STAT_SYS_TYPE_MINIGAME</t>
+  </si>
+  <si>
+    <t>小游戏对应的统计</t>
+  </si>
+  <si>
+    <t>STAT_COMP_NONE</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>STAT_COMP_GE</t>
+  </si>
+  <si>
+    <t>大于等于</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_NONE</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_MAX</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_MIN</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_SUM</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_COUNT</t>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_UPDATE</t>
+  </si>
+  <si>
+    <t>更新当前值</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_LIST</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>STAT_TYPE_CALCULATE_AVERAGE</t>
+  </si>
+  <si>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_NONE</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_USE_ITEM</t>
+  </si>
+  <si>
+    <t>使用道具</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_ADD_ITEM</t>
+  </si>
+  <si>
+    <t>获得道具</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_SETTLE_MINIGAME</t>
+  </si>
+  <si>
+    <t>小游戏结算得分</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_TIME</t>
+  </si>
+  <si>
+    <t>关卡时长</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_KILL_ENEMY_COUNTS</t>
+  </si>
+  <si>
+    <t>杀敌数量</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_UPGRADE_TECH</t>
+  </si>
+  <si>
+    <t>科技升级</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_UPGRADE_ITEM</t>
+  </si>
+  <si>
+    <t>升级物品</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_COLLECT_SUIT</t>
+  </si>
+  <si>
+    <t>收集套装</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_PUZZLE_PLAY</t>
+  </si>
+  <si>
+    <t>解密剧情</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_PROCESS_MOVEON</t>
+  </si>
+  <si>
+    <t>进程推进</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_UI_CLICK</t>
+  </si>
+  <si>
+    <t>UI点击</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_GOT_DAMAGE</t>
+  </si>
+  <si>
+    <t>关卡承受伤害</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_DEATH_COUNTS</t>
+  </si>
+  <si>
+    <t>关卡死亡次数</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_DAMAGE</t>
+  </si>
+  <si>
+    <t>关卡造成伤害</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_DAMAGE_PER_SECOND</t>
+  </si>
+  <si>
+    <t>关卡秒伤</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_FINISH</t>
+  </si>
+  <si>
+    <t>关卡通关次数</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_SURVIVE_TIME</t>
+  </si>
+  <si>
+    <t>关卡存活时间</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_KILL_ENEMY</t>
+  </si>
+  <si>
+    <t>关卡击杀</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_LEVEL_PASS_TIME</t>
+  </si>
+  <si>
+    <t>uint33</t>
+  </si>
+  <si>
+    <t>关卡通过时长</t>
+  </si>
+  <si>
     <t>StatisticSaveData</t>
   </si>
   <si>
@@ -363,225 +573,6 @@
   </si>
   <si>
     <t>统计项数据表</t>
-  </si>
-  <si>
-    <t>统计id</t>
-  </si>
-  <si>
-    <t>objcategory</t>
-  </si>
-  <si>
-    <t>objtype</t>
-  </si>
-  <si>
-    <t>objsubtype</t>
-  </si>
-  <si>
-    <t>objid</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>STAT_SYS_TYPE_ALL</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>STAT_SYS_TYPE_ACHIEVEMENT</t>
-  </si>
-  <si>
-    <t>成就对应的统计</t>
-  </si>
-  <si>
-    <t>STAT_SYS_TYPE_QUEST</t>
-  </si>
-  <si>
-    <t>任务对应的统计</t>
-  </si>
-  <si>
-    <t>STAT_SYS_TYPE_MINIGAME</t>
-  </si>
-  <si>
-    <t>小游戏对应的统计</t>
-  </si>
-  <si>
-    <t>STAT_COMP_NONE</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>STAT_COMP_GE</t>
-  </si>
-  <si>
-    <t>大于等于</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_NONE</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_MAX</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_MIN</t>
-  </si>
-  <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_SUM</t>
-  </si>
-  <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_COUNT</t>
-  </si>
-  <si>
-    <t>次数</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_UPDATE</t>
-  </si>
-  <si>
-    <t>更新当前值</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_LIST</t>
-  </si>
-  <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>STAT_TYPE_CALCULATE_AVERAGE</t>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_NONE</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_USE_ITEM</t>
-  </si>
-  <si>
-    <t>使用道具</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_ADD_ITEM</t>
-  </si>
-  <si>
-    <t>获得道具</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_SETTLE_MINIGAME</t>
-  </si>
-  <si>
-    <t>小游戏结算得分</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_TIME</t>
-  </si>
-  <si>
-    <t>关卡时长</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_KILL_ENEMY_COUNTS</t>
-  </si>
-  <si>
-    <t>杀敌数量</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_UPGRADE_TECH</t>
-  </si>
-  <si>
-    <t>科技升级</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_UPGRADE_ITEM</t>
-  </si>
-  <si>
-    <t>升级物品</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_COLLECT_SUIT</t>
-  </si>
-  <si>
-    <t>收集套装</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_PUZZLE_PLAY</t>
-  </si>
-  <si>
-    <t>解密剧情</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_PROCESS_MOVEON</t>
-  </si>
-  <si>
-    <t>进程推进</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_UI_CLICK</t>
-  </si>
-  <si>
-    <t>UI点击</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_GOT_DAMAGE</t>
-  </si>
-  <si>
-    <t>关卡承受伤害</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_DEATH_COUNTS</t>
-  </si>
-  <si>
-    <t>关卡死亡次数</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_DAMAGE</t>
-  </si>
-  <si>
-    <t>关卡造成伤害</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_DAMAGE_PER_SECOND</t>
-  </si>
-  <si>
-    <t>关卡秒伤</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_FINISH</t>
-  </si>
-  <si>
-    <t>关卡通关次数</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_SURVIVE_TIME</t>
-  </si>
-  <si>
-    <t>关卡存活时间</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_KILL_ENEMY</t>
-  </si>
-  <si>
-    <t>关卡击杀</t>
-  </si>
-  <si>
-    <t>STAT_EVENT_LEVEL_PASS_TIME</t>
-  </si>
-  <si>
-    <t>uint33</t>
-  </si>
-  <si>
-    <t>关卡通过时长</t>
   </si>
 </sst>
 </file>
@@ -595,7 +586,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -623,13 +614,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1081,48 +1065,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,97 +1119,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,21 +1287,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -2536,109 +2506,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:J15" totalsRowShown="0">
-  <autoFilter ref="A1:J15"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15"/>
+  <tableColumns count="9">
     <tableColumn id="9" name="Package" dataDxfId="0"/>
     <tableColumn id="1" name="Name" dataDxfId="1"/>
-    <tableColumn id="8" name="Group" dataDxfId="2"/>
-    <tableColumn id="2" name="Type" dataDxfId="3"/>
-    <tableColumn id="5" name="Description" dataDxfId="4"/>
-    <tableColumn id="6" name="Scope" dataDxfId="5"/>
-    <tableColumn id="4" name="PK" dataDxfId="6"/>
-    <tableColumn id="7" name="SK" dataDxfId="7"/>
+    <tableColumn id="2" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="3"/>
+    <tableColumn id="6" name="Scope" dataDxfId="4"/>
+    <tableColumn id="4" name="PK" dataDxfId="5"/>
+    <tableColumn id="7" name="SK" dataDxfId="6"/>
     <tableColumn id="10" name="Index"/>
-    <tableColumn id="3" name="TableType" dataDxfId="8"/>
+    <tableColumn id="3" name="TableType" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="StatValue" displayName="StatValue" ref="A5:F7" totalsRowShown="0">
-  <autoFilter ref="A5:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="AddStatValue" displayName="AddStatValue" ref="A11:F17" totalsRowShown="0">
+  <autoFilter ref="A11:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="52"/>
-    <tableColumn id="2" name="Type" dataDxfId="53"/>
-    <tableColumn id="5" name="Description" dataDxfId="54"/>
-    <tableColumn id="3" name="Tag" dataDxfId="55"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="56"/>
-    <tableColumn id="6" name="Scope" dataDxfId="57"/>
+    <tableColumn id="1" name="Name" dataDxfId="57"/>
+    <tableColumn id="2" name="Type" dataDxfId="58"/>
+    <tableColumn id="5" name="Description" dataDxfId="59"/>
+    <tableColumn id="3" name="Tag" dataDxfId="60"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="61"/>
+    <tableColumn id="6" name="Scope" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="AddStatValue" displayName="AddStatValue" ref="A11:F17" totalsRowShown="0">
-  <autoFilter ref="A11:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="STAT_SYS_TYPE" displayName="STAT_SYS_TYPE" ref="A20:F24" totalsRowShown="0">
+  <autoFilter ref="A20:F24"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="58"/>
-    <tableColumn id="2" name="Type" dataDxfId="59"/>
-    <tableColumn id="5" name="Description" dataDxfId="60"/>
-    <tableColumn id="3" name="Tag" dataDxfId="61"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="62"/>
-    <tableColumn id="6" name="Scope" dataDxfId="63"/>
+    <tableColumn id="1" name="Name" dataDxfId="63"/>
+    <tableColumn id="2" name="Type" dataDxfId="64"/>
+    <tableColumn id="5" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" name="Tag" dataDxfId="66"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="67"/>
+    <tableColumn id="6" name="Scope" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="STAT_SYS_TYPE" displayName="STAT_SYS_TYPE" ref="A20:F24" totalsRowShown="0">
-  <autoFilter ref="A20:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="STAT_COMP_TYPE" displayName="STAT_COMP_TYPE" ref="A28:F30" totalsRowShown="0">
+  <autoFilter ref="A28:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="64"/>
-    <tableColumn id="2" name="Type" dataDxfId="65"/>
-    <tableColumn id="5" name="Description" dataDxfId="66"/>
-    <tableColumn id="3" name="Tag" dataDxfId="67"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="68"/>
-    <tableColumn id="6" name="Scope" dataDxfId="69"/>
+    <tableColumn id="1" name="Name" dataDxfId="69"/>
+    <tableColumn id="2" name="Type" dataDxfId="70"/>
+    <tableColumn id="3" name="Description" dataDxfId="71"/>
+    <tableColumn id="4" name="Tag" dataDxfId="72"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="73"/>
+    <tableColumn id="6" name="Scope" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="STAT_COMP_TYPE" displayName="STAT_COMP_TYPE" ref="A28:F30" totalsRowShown="0">
-  <autoFilter ref="A28:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="STAT_TYPE" displayName="STAT_TYPE" ref="A35:F43" totalsRowShown="0">
+  <autoFilter ref="A35:F43"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="70"/>
-    <tableColumn id="2" name="Type" dataDxfId="71"/>
-    <tableColumn id="3" name="Description" dataDxfId="72"/>
-    <tableColumn id="4" name="Tag" dataDxfId="73"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="74"/>
-    <tableColumn id="6" name="Scope" dataDxfId="75"/>
+    <tableColumn id="1" name="Name" dataDxfId="75"/>
+    <tableColumn id="2" name="Type" dataDxfId="76"/>
+    <tableColumn id="3" name="Description" dataDxfId="77"/>
+    <tableColumn id="4" name="Tag" dataDxfId="78"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="79"/>
+    <tableColumn id="6" name="Scope" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="STAT_TYPE" displayName="STAT_TYPE" ref="A35:F43" totalsRowShown="0">
-  <autoFilter ref="A35:F43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="STAT_EVENT" displayName="STAT_EVENT" ref="A48:F68" totalsRowShown="0">
+  <autoFilter ref="A48:F68"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="76"/>
-    <tableColumn id="2" name="Type" dataDxfId="77"/>
-    <tableColumn id="3" name="Description" dataDxfId="78"/>
-    <tableColumn id="4" name="Tag" dataDxfId="79"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="80"/>
-    <tableColumn id="6" name="Scope" dataDxfId="81"/>
+    <tableColumn id="1" name="Name" dataDxfId="81"/>
+    <tableColumn id="2" name="Type" dataDxfId="82"/>
+    <tableColumn id="3" name="Description" dataDxfId="83"/>
+    <tableColumn id="4" name="Tag" dataDxfId="84"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="85"/>
+    <tableColumn id="6" name="Scope" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="STAT_EVENT" displayName="STAT_EVENT" ref="A48:F68" totalsRowShown="0">
-  <autoFilter ref="A48:F68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="StatisticContainer" displayName="StatisticContainer" ref="A71:F72" totalsRowShown="0">
+  <autoFilter ref="A71:F72"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="82"/>
-    <tableColumn id="2" name="Type" dataDxfId="83"/>
-    <tableColumn id="3" name="Description" dataDxfId="84"/>
-    <tableColumn id="4" name="Tag" dataDxfId="85"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="86"/>
-    <tableColumn id="6" name="Scope" dataDxfId="87"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2648,12 +2617,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="StatNode" displayName="StatNode" ref="A4:F7" totalsRowShown="0">
   <autoFilter ref="A4:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Type" dataDxfId="10"/>
-    <tableColumn id="5" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" name="Tag" dataDxfId="12"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="13"/>
-    <tableColumn id="6" name="Scope" dataDxfId="14"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" name="Description" dataDxfId="10"/>
+    <tableColumn id="3" name="Tag" dataDxfId="11"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="12"/>
+    <tableColumn id="6" name="Scope" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2663,12 +2632,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AddStatReq" displayName="AddStatReq" ref="A3:F5" totalsRowShown="0">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Type" dataDxfId="17"/>
-    <tableColumn id="5" name="Description" dataDxfId="18"/>
-    <tableColumn id="3" name="Tag" dataDxfId="19"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="20"/>
-    <tableColumn id="6" name="Scope" dataDxfId="21"/>
+    <tableColumn id="1" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Type" dataDxfId="16"/>
+    <tableColumn id="5" name="Description" dataDxfId="17"/>
+    <tableColumn id="3" name="Tag" dataDxfId="18"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="19"/>
+    <tableColumn id="6" name="Scope" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2678,12 +2647,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AddStatRsp" displayName="AddStatRsp" ref="A8:F10" totalsRowShown="0">
   <autoFilter ref="A8:F10"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" name="Type" dataDxfId="23"/>
-    <tableColumn id="5" name="Description" dataDxfId="24"/>
-    <tableColumn id="3" name="Tag" dataDxfId="25"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="26"/>
-    <tableColumn id="6" name="Scope" dataDxfId="27"/>
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" name="Type" dataDxfId="22"/>
+    <tableColumn id="5" name="Description" dataDxfId="23"/>
+    <tableColumn id="3" name="Tag" dataDxfId="24"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="25"/>
+    <tableColumn id="6" name="Scope" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,12 +2662,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GetStatDataReq" displayName="GetStatDataReq" ref="A14:F15" totalsRowShown="0">
   <autoFilter ref="A14:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" name="Type" dataDxfId="29"/>
-    <tableColumn id="5" name="Description" dataDxfId="30"/>
-    <tableColumn id="3" name="Tag" dataDxfId="31"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="32"/>
-    <tableColumn id="6" name="Scope" dataDxfId="33"/>
+    <tableColumn id="1" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" name="Type" dataDxfId="28"/>
+    <tableColumn id="5" name="Description" dataDxfId="29"/>
+    <tableColumn id="3" name="Tag" dataDxfId="30"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="6" name="Scope" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2708,12 +2677,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="GetStatDataRsp" displayName="GetStatDataRsp" ref="A18:F21" totalsRowShown="0">
   <autoFilter ref="A18:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="34"/>
-    <tableColumn id="2" name="Type" dataDxfId="35"/>
-    <tableColumn id="5" name="Description" dataDxfId="36"/>
-    <tableColumn id="3" name="Tag" dataDxfId="37"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="38"/>
-    <tableColumn id="6" name="Scope" dataDxfId="39"/>
+    <tableColumn id="1" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" name="Type" dataDxfId="34"/>
+    <tableColumn id="5" name="Description" dataDxfId="35"/>
+    <tableColumn id="3" name="Tag" dataDxfId="36"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="37"/>
+    <tableColumn id="6" name="Scope" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2723,12 +2692,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="NiStatisticService" displayName="NiStatisticService" ref="A25:F27" totalsRowShown="0">
   <autoFilter ref="A25:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MethodName" dataDxfId="40"/>
-    <tableColumn id="3" name="Description" dataDxfId="41"/>
-    <tableColumn id="4" name="Inputs" dataDxfId="42"/>
-    <tableColumn id="2" name="Return" dataDxfId="43"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="44"/>
-    <tableColumn id="6" name="Scope" dataDxfId="45"/>
+    <tableColumn id="1" name="MethodName" dataDxfId="39"/>
+    <tableColumn id="3" name="Description" dataDxfId="40"/>
+    <tableColumn id="4" name="Inputs" dataDxfId="41"/>
+    <tableColumn id="2" name="Return" dataDxfId="42"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="43"/>
+    <tableColumn id="6" name="Scope" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2738,27 +2707,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="StatData" displayName="StatData" ref="A4:F17" totalsRowShown="0">
   <autoFilter ref="A4:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="46"/>
-    <tableColumn id="2" name="Type" dataDxfId="47"/>
-    <tableColumn id="5" name="Description" dataDxfId="48"/>
-    <tableColumn id="3" name="Tag" dataDxfId="49"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="50"/>
-    <tableColumn id="6" name="Scope" dataDxfId="51"/>
+    <tableColumn id="1" name="Name" dataDxfId="45"/>
+    <tableColumn id="2" name="Type" dataDxfId="46"/>
+    <tableColumn id="5" name="Description" dataDxfId="47"/>
+    <tableColumn id="3" name="Tag" dataDxfId="48"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="49"/>
+    <tableColumn id="6" name="Scope" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="StatisticContainer" displayName="StatisticContainer" ref="A21:F22" totalsRowShown="0">
-  <autoFilter ref="A21:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="StatValue" displayName="StatValue" ref="A5:F7" totalsRowShown="0">
+  <autoFilter ref="A5:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="1" name="Name" dataDxfId="51"/>
+    <tableColumn id="2" name="Type" dataDxfId="52"/>
+    <tableColumn id="5" name="Description" dataDxfId="53"/>
+    <tableColumn id="3" name="Tag" dataDxfId="54"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="55"/>
+    <tableColumn id="6" name="Scope" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3022,28 +2991,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="27.3333333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="30" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.5833333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="7" customWidth="1"/>
-    <col min="8" max="9" width="17.3333333333333" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="8.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.5833333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="7" customWidth="1"/>
+    <col min="7" max="8" width="17.3333333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3071,336 +3039,291 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3354,7 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3444,80 +3367,80 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3533,7 +3456,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3548,7 +3471,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3556,64 +3479,64 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3621,64 +3544,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3686,44 +3609,44 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3731,82 +3654,82 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3816,78 +3739,78 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3908,7 +3831,7 @@
   <dimension ref="A3:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3923,7 +3846,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3931,39 +3854,39 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3971,263 +3894,215 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2">
         <v>12</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2">
         <v>13</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4240,14 +4115,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5:D17">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4255,10 +4129,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:F68"/>
+  <dimension ref="A4:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -4272,7 +4146,7 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4280,62 +4154,62 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4343,134 +4217,134 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4483,96 +4357,96 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4582,7 +4456,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4595,55 +4469,55 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4664,7 +4538,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4674,7 +4548,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4687,168 +4561,168 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D42" s="2">
         <v>6</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2">
         <v>7</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4858,7 +4732,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4871,392 +4745,441 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D55" s="2">
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2">
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2">
         <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2">
         <v>10</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D60" s="2">
         <v>11</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D61" s="2">
         <v>12</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D62" s="2">
         <v>13</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D63" s="2">
         <v>14</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2">
         <v>15</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2">
         <v>16</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2">
         <v>17</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D67" s="2">
         <v>18</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D68" s="2">
         <v>19</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D17">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10610"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -2993,11 +2993,11 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27.3333333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="30" style="7" customWidth="1"/>
@@ -3345,7 +3345,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="27.8333333333333" customWidth="1"/>
@@ -3455,11 +3455,11 @@
   <sheetPr/>
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="96.3333333333333" customWidth="1"/>
@@ -3831,10 +3831,10 @@
   <dimension ref="A3:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -4131,11 +4131,11 @@
   <sheetPr/>
   <dimension ref="A4:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="53.75" customWidth="1"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -16,12 +16,25 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="190">
   <si>
     <t>Package</t>
   </si>
@@ -564,6 +577,24 @@
   </si>
   <si>
     <t>关卡通过时长</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_KILL_NORMALENEMY_COUNTS</t>
+  </si>
+  <si>
+    <t>击杀普通怪数量</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_KILL_ELITEENEMY_COUNTS</t>
+  </si>
+  <si>
+    <t>击杀精英怪数量</t>
+  </si>
+  <si>
+    <t>STAT_EVENT_KILL_BOSSENEMY_COUNTS</t>
+  </si>
+  <si>
+    <t>击杀BOSS数量</t>
   </si>
   <si>
     <t>StatisticSaveData</t>
@@ -578,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -616,34 +647,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -657,14 +660,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,6 +699,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,7 +764,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,55 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,31 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +860,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,7 +884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,6 +968,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -960,21 +991,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1007,6 +1023,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,148 +1096,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,52 +1269,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2507,7 +2538,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I15" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
     <tableColumn id="9" name="Package" dataDxfId="0"/>
     <tableColumn id="1" name="Name" dataDxfId="1"/>
@@ -2525,7 +2556,7 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="AddStatValue" displayName="AddStatValue" ref="A11:F17" totalsRowShown="0">
-  <autoFilter ref="A11:F17"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A11:F17" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="57"/>
     <tableColumn id="2" name="Type" dataDxfId="58"/>
@@ -2540,7 +2571,7 @@
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="STAT_SYS_TYPE" displayName="STAT_SYS_TYPE" ref="A20:F24" totalsRowShown="0">
-  <autoFilter ref="A20:F24"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A20:F24" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="63"/>
     <tableColumn id="2" name="Type" dataDxfId="64"/>
@@ -2555,7 +2586,7 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="STAT_COMP_TYPE" displayName="STAT_COMP_TYPE" ref="A28:F30" totalsRowShown="0">
-  <autoFilter ref="A28:F30"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A28:F30" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="69"/>
     <tableColumn id="2" name="Type" dataDxfId="70"/>
@@ -2570,7 +2601,7 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="STAT_TYPE" displayName="STAT_TYPE" ref="A35:F43" totalsRowShown="0">
-  <autoFilter ref="A35:F43"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A35:F43" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="75"/>
     <tableColumn id="2" name="Type" dataDxfId="76"/>
@@ -2584,8 +2615,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="STAT_EVENT" displayName="STAT_EVENT" ref="A48:F68" totalsRowShown="0">
-  <autoFilter ref="A48:F68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="STAT_EVENT" displayName="STAT_EVENT" ref="A48:F71" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A48:F71" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="81"/>
     <tableColumn id="2" name="Type" dataDxfId="82"/>
@@ -2599,8 +2630,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="StatisticContainer" displayName="StatisticContainer" ref="A71:F72" totalsRowShown="0">
-  <autoFilter ref="A71:F72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="StatisticContainer" displayName="StatisticContainer" ref="A76:F77" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A76:F77" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2615,7 +2646,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="StatNode" displayName="StatNode" ref="A4:F7" totalsRowShown="0">
-  <autoFilter ref="A4:F7"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="8"/>
     <tableColumn id="2" name="Type" dataDxfId="9"/>
@@ -2630,7 +2661,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AddStatReq" displayName="AddStatReq" ref="A3:F5" totalsRowShown="0">
-  <autoFilter ref="A3:F5"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="15"/>
     <tableColumn id="2" name="Type" dataDxfId="16"/>
@@ -2645,7 +2676,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AddStatRsp" displayName="AddStatRsp" ref="A8:F10" totalsRowShown="0">
-  <autoFilter ref="A8:F10"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A8:F10" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="21"/>
     <tableColumn id="2" name="Type" dataDxfId="22"/>
@@ -2660,7 +2691,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GetStatDataReq" displayName="GetStatDataReq" ref="A14:F15" totalsRowShown="0">
-  <autoFilter ref="A14:F15"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A14:F15" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="27"/>
     <tableColumn id="2" name="Type" dataDxfId="28"/>
@@ -2675,7 +2706,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="GetStatDataRsp" displayName="GetStatDataRsp" ref="A18:F21" totalsRowShown="0">
-  <autoFilter ref="A18:F21"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A18:F21" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="33"/>
     <tableColumn id="2" name="Type" dataDxfId="34"/>
@@ -2690,7 +2721,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="NiStatisticService" displayName="NiStatisticService" ref="A25:F27" totalsRowShown="0">
-  <autoFilter ref="A25:F27"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A25:F27" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="MethodName" dataDxfId="39"/>
     <tableColumn id="3" name="Description" dataDxfId="40"/>
@@ -2705,7 +2736,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="StatData" displayName="StatData" ref="A4:F17" totalsRowShown="0">
-  <autoFilter ref="A4:F17"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:F17" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="45"/>
     <tableColumn id="2" name="Type" dataDxfId="46"/>
@@ -2720,7 +2751,7 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="StatValue" displayName="StatValue" ref="A5:F7" totalsRowShown="0">
-  <autoFilter ref="A5:F7"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A5:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="51"/>
     <tableColumn id="2" name="Type" dataDxfId="52"/>
@@ -3455,7 +3486,7 @@
   <sheetPr/>
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -4129,10 +4160,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:F72"/>
+  <dimension ref="A4:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4833,7 +4864,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4850,7 +4881,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4867,7 +4898,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4884,7 +4915,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4901,7 +4932,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4918,7 +4949,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5114,51 +5145,105 @@
         <v>13</v>
       </c>
     </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="2">
+        <v>21</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="2">
+        <v>22</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="4" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="1">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Statistic.xlsx
@@ -579,19 +579,19 @@
     <t>关卡通过时长</t>
   </si>
   <si>
-    <t>STAT_EVENT_KILL_NORMALENEMY_COUNTS</t>
+    <t>STAT_EVENT_KILL_ENEMYNORMAL_COUNTS</t>
   </si>
   <si>
     <t>击杀普通怪数量</t>
   </si>
   <si>
-    <t>STAT_EVENT_KILL_ELITEENEMY_COUNTS</t>
+    <t>STAT_EVENT_KILL_ENEMYELITE_COUNTS</t>
   </si>
   <si>
     <t>击杀精英怪数量</t>
   </si>
   <si>
-    <t>STAT_EVENT_KILL_BOSSENEMY_COUNTS</t>
+    <t>STAT_EVENT_KILL_ENEMYBOSS_COUNTS</t>
   </si>
   <si>
     <t>击杀BOSS数量</t>
@@ -4163,7 +4163,7 @@
   <dimension ref="A4:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5158,7 +5158,6 @@
       <c r="D69" s="2">
         <v>20</v>
       </c>
-      <c r="E69"/>
       <c r="F69" s="1" t="s">
         <v>13</v>
       </c>
@@ -5176,7 +5175,6 @@
       <c r="D70" s="2">
         <v>21</v>
       </c>
-      <c r="E70"/>
       <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5192,6 @@
       <c r="D71" s="2">
         <v>22</v>
       </c>
-      <c r="E71"/>
       <c r="F71" s="1" t="s">
         <v>13</v>
       </c>
